--- a/src/test/java/com/InetBanking/TestData/LoginData.xlsx
+++ b/src/test/java/com/InetBanking/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{31F704CB-D80C-4512-9159-037FE38009DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B020DFD8-6DBD-4794-8BCF-9B9F5AFAD0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>AgYbUzb</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -406,60 +415,81 @@
     <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
